--- a/data/output/FV2304_FV2210/UTILMD/11102.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11102.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4030" uniqueCount="327">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4051" uniqueCount="327">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1107,6 +1107,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U188" totalsRowShown="0">
+  <autoFilter ref="A1:U188"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1396,7 +1426,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10051,5 +10084,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11102.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11102.xlsx
@@ -2073,7 +2073,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2407,7 +2407,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3075,7 +3075,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -4155,7 +4155,7 @@
         <v>302</v>
       </c>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -4359,7 +4359,7 @@
         <v>303</v>
       </c>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -4563,7 +4563,7 @@
         <v>304</v>
       </c>
       <c r="L53" s="4"/>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -4767,7 +4767,7 @@
         <v>305</v>
       </c>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -5027,7 +5027,7 @@
         <v>306</v>
       </c>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -5407,7 +5407,7 @@
         <v>308</v>
       </c>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -5695,7 +5695,7 @@
         <v>310</v>
       </c>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -6165,7 +6165,7 @@
         <v>314</v>
       </c>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="K90" s="2"/>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -6651,7 +6651,7 @@
       </c>
       <c r="K95" s="2"/>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -6843,7 +6843,7 @@
         <v>316</v>
       </c>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -7049,7 +7049,7 @@
         <v>317</v>
       </c>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -7187,7 +7187,7 @@
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -7337,7 +7337,7 @@
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="4"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -7487,7 +7487,7 @@
         <v>318</v>
       </c>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -7731,7 +7731,7 @@
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="4"/>
-      <c r="M117" s="2" t="s">
+      <c r="M117" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -7975,7 +7975,7 @@
         <v>320</v>
       </c>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -8113,7 +8113,7 @@
       </c>
       <c r="K125" s="2"/>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -8261,7 +8261,7 @@
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -8655,7 +8655,7 @@
         <v>322</v>
       </c>
       <c r="L136" s="4"/>
-      <c r="M136" s="2" t="s">
+      <c r="M136" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N136" s="2" t="s">
@@ -8793,7 +8793,7 @@
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -8941,7 +8941,7 @@
       </c>
       <c r="K142" s="2"/>
       <c r="L142" s="4"/>
-      <c r="M142" s="2" t="s">
+      <c r="M142" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N142" s="2" t="s">
@@ -9167,7 +9167,7 @@
       </c>
       <c r="K147" s="2"/>
       <c r="L147" s="4"/>
-      <c r="M147" s="2" t="s">
+      <c r="M147" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N147" s="2" t="s">
@@ -9559,7 +9559,7 @@
       </c>
       <c r="K155" s="2"/>
       <c r="L155" s="4"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -9961,7 +9961,7 @@
         <v>324</v>
       </c>
       <c r="L163" s="4"/>
-      <c r="M163" s="2" t="s">
+      <c r="M163" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N163" s="2" t="s">
@@ -10099,7 +10099,7 @@
       </c>
       <c r="K166" s="2"/>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -10247,7 +10247,7 @@
       </c>
       <c r="K169" s="2"/>
       <c r="L169" s="4"/>
-      <c r="M169" s="2" t="s">
+      <c r="M169" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N169" s="2" t="s">
@@ -10475,7 +10475,7 @@
         <v>325</v>
       </c>
       <c r="L174" s="4"/>
-      <c r="M174" s="2" t="s">
+      <c r="M174" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N174" s="2" t="s">
@@ -10825,7 +10825,7 @@
       </c>
       <c r="K181" s="2"/>
       <c r="L181" s="4"/>
-      <c r="M181" s="2" t="s">
+      <c r="M181" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N181" s="2" t="s">
@@ -11085,7 +11085,7 @@
       </c>
       <c r="K186" s="2"/>
       <c r="L186" s="4"/>
-      <c r="M186" s="2" t="s">
+      <c r="M186" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N186" s="2"/>
